--- a/data/input/absenteeism_data_14.xlsx
+++ b/data/input/absenteeism_data_14.xlsx
@@ -476,74 +476,74 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>77017</v>
+        <v>42858</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Noah Melo</t>
+          <t>Anthony Castro</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45104</v>
+        <v>45102</v>
       </c>
       <c r="G2" t="n">
-        <v>7219.55</v>
+        <v>6156.61</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>18259</v>
+        <v>7108</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alexandre da Mota</t>
+          <t>Luiz Otávio Silveira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45091</v>
+        <v>45102</v>
       </c>
       <c r="G3" t="n">
-        <v>11249.01</v>
+        <v>7938.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>62462</v>
+        <v>27514</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Camila Oliveira</t>
+          <t>Luigi Cunha</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -555,111 +555,111 @@
         <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45082</v>
+        <v>45092</v>
       </c>
       <c r="G4" t="n">
-        <v>5017.5</v>
+        <v>11828.89</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>42373</v>
+        <v>51805</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>João Gabriel da Luz</t>
+          <t>Kaique Azevedo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45098</v>
+        <v>45099</v>
       </c>
       <c r="G5" t="n">
-        <v>3906.92</v>
+        <v>8917.27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>97301</v>
+        <v>50734</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Srta. Joana Pereira</t>
+          <t>Stella Nogueira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45078</v>
+        <v>45087</v>
       </c>
       <c r="G6" t="n">
-        <v>4316.57</v>
+        <v>3880.59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>75203</v>
+        <v>31498</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ana Vitória da Cunha</t>
+          <t>Lucas Nunes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45099</v>
+        <v>45104</v>
       </c>
       <c r="G7" t="n">
-        <v>6335.26</v>
+        <v>2736.26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>88024</v>
+        <v>5975</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Luigi Silveira</t>
+          <t>Gabrielly Barros</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -671,97 +671,97 @@
         <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45083</v>
+        <v>45094</v>
       </c>
       <c r="G8" t="n">
-        <v>6509.46</v>
+        <v>7203.93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>48539</v>
+        <v>30219</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Davi Lucca Rodrigues</t>
+          <t>Theo Moraes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45087</v>
+        <v>45098</v>
       </c>
       <c r="G9" t="n">
-        <v>5613.55</v>
+        <v>3750.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>86048</v>
+        <v>41530</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Francisco Peixoto</t>
+          <t>Juliana Ramos</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45102</v>
+        <v>45089</v>
       </c>
       <c r="G10" t="n">
-        <v>7116.62</v>
+        <v>4756.81</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>122</v>
+        <v>81939</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sra. Pietra Ribeiro</t>
+          <t>Sr. Luiz Felipe Almeida</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45089</v>
+        <v>45102</v>
       </c>
       <c r="G11" t="n">
-        <v>5564.27</v>
+        <v>5926.82</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_14.xlsx
+++ b/data/input/absenteeism_data_14.xlsx
@@ -476,45 +476,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>42858</v>
+        <v>190</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anthony Castro</t>
+          <t>Gabrielly Ribeiro</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45102</v>
+        <v>45105</v>
       </c>
       <c r="G2" t="n">
-        <v>6156.61</v>
+        <v>9615.809999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7108</v>
+        <v>98933</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Luiz Otávio Silveira</t>
+          <t>Sr. Vitor Hugo Gonçalves</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -526,140 +526,140 @@
         <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45102</v>
+        <v>45101</v>
       </c>
       <c r="G3" t="n">
-        <v>7938.3</v>
+        <v>3737.68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>27514</v>
+        <v>7300</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Luigi Cunha</t>
+          <t>Evelyn Barros</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45092</v>
+        <v>45093</v>
       </c>
       <c r="G4" t="n">
-        <v>11828.89</v>
+        <v>3442.63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>51805</v>
+        <v>3750</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kaique Azevedo</t>
+          <t>Enzo Gabriel Dias</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45099</v>
+        <v>45086</v>
       </c>
       <c r="G5" t="n">
-        <v>8917.27</v>
+        <v>3956.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>50734</v>
+        <v>61629</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Stella Nogueira</t>
+          <t>Pietro Oliveira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45087</v>
+        <v>45084</v>
       </c>
       <c r="G6" t="n">
-        <v>3880.59</v>
+        <v>12346.19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>31498</v>
+        <v>38013</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Lucas Nunes</t>
+          <t>Lucas Gabriel da Costa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45104</v>
+        <v>45102</v>
       </c>
       <c r="G7" t="n">
-        <v>2736.26</v>
+        <v>6444.36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5975</v>
+        <v>93248</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Gabrielly Barros</t>
+          <t>Anthony da Mota</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -671,53 +671,53 @@
         <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45094</v>
+        <v>45096</v>
       </c>
       <c r="G8" t="n">
-        <v>7203.93</v>
+        <v>3717.89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>30219</v>
+        <v>73383</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Theo Moraes</t>
+          <t>Ana Sophia Lima</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45098</v>
+        <v>45103</v>
       </c>
       <c r="G9" t="n">
-        <v>3750.1</v>
+        <v>6358.84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>41530</v>
+        <v>11548</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Juliana Ramos</t>
+          <t>Pedro Miguel Alves</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45089</v>
+        <v>45085</v>
       </c>
       <c r="G10" t="n">
-        <v>4756.81</v>
+        <v>8803.75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>81939</v>
+        <v>9181</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sr. Luiz Felipe Almeida</t>
+          <t>Vitória Fernandes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45102</v>
+        <v>45091</v>
       </c>
       <c r="G11" t="n">
-        <v>5926.82</v>
+        <v>3246.43</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_14.xlsx
+++ b/data/input/absenteeism_data_14.xlsx
@@ -476,103 +476,103 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>190</v>
+        <v>23277</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gabrielly Ribeiro</t>
+          <t>Pedro Henrique Aragão</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45105</v>
+        <v>45079</v>
       </c>
       <c r="G2" t="n">
-        <v>9615.809999999999</v>
+        <v>7956.64</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>98933</v>
+        <v>67875</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sr. Vitor Hugo Gonçalves</t>
+          <t>Sr. Cauê Rodrigues</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45101</v>
+        <v>45089</v>
       </c>
       <c r="G3" t="n">
-        <v>3737.68</v>
+        <v>4711.47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7300</v>
+        <v>88448</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Evelyn Barros</t>
+          <t>Alícia Cardoso</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45093</v>
+        <v>45082</v>
       </c>
       <c r="G4" t="n">
-        <v>3442.63</v>
+        <v>9861.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3750</v>
+        <v>28786</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Enzo Gabriel Dias</t>
+          <t>Laura da Cunha</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,80 +581,80 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45086</v>
+        <v>45090</v>
       </c>
       <c r="G5" t="n">
-        <v>3956.8</v>
+        <v>7627.32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>61629</v>
+        <v>18482</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pietro Oliveira</t>
+          <t>André Jesus</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45084</v>
+        <v>45083</v>
       </c>
       <c r="G6" t="n">
-        <v>12346.19</v>
+        <v>9016.780000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>38013</v>
+        <v>22754</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Lucas Gabriel da Costa</t>
+          <t>Rafael Sales</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45102</v>
+        <v>45106</v>
       </c>
       <c r="G7" t="n">
-        <v>6444.36</v>
+        <v>4324.19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>93248</v>
+        <v>79922</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Anthony da Mota</t>
+          <t>Miguel da Costa</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -668,100 +668,100 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45096</v>
+        <v>45080</v>
       </c>
       <c r="G8" t="n">
-        <v>3717.89</v>
+        <v>6701.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>73383</v>
+        <v>30808</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ana Sophia Lima</t>
+          <t>Thomas da Cruz</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45103</v>
+        <v>45100</v>
       </c>
       <c r="G9" t="n">
-        <v>6358.84</v>
+        <v>7168.89</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>11548</v>
+        <v>43390</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pedro Miguel Alves</t>
+          <t>Thiago Silva</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45085</v>
+        <v>45089</v>
       </c>
       <c r="G10" t="n">
-        <v>8803.75</v>
+        <v>6083.66</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9181</v>
+        <v>8463</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Vitória Fernandes</t>
+          <t>Nina Oliveira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45091</v>
+        <v>45102</v>
       </c>
       <c r="G11" t="n">
-        <v>3246.43</v>
+        <v>3770.11</v>
       </c>
     </row>
   </sheetData>
